--- a/xls/UmaMusume Uma Title Translation List.xlsx
+++ b/xls/UmaMusume Uma Title Translation List.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\UmaMusume\Tools\UmaCruiseTranslation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starg\Documents\GitHub\umacruise-english-patch\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025C53BC-94D6-4820-A324-93263CD9E2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8637D163-96EF-47BD-99D7-6454CE592CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{256B361F-8AF2-4BD7-A250-3B4078BE616F}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{256B361F-8AF2-4BD7-A250-3B4078BE616F}"/>
   </bookViews>
   <sheets>
     <sheet name="uma-title" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'uma-title'!$A$1:$B$47</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'uma-title'!$A$1:$B$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>text</t>
   </si>
@@ -93,9 +91,6 @@
     <t>Blasting Off ☆ Summer Night</t>
   </si>
   <si>
-    <t>シューティンスタァ・ルヴュ</t>
-  </si>
-  <si>
     <t>Shooting Star Revue</t>
   </si>
   <si>
@@ -307,6 +302,36 @@
   </si>
   <si>
     <t>translation</t>
+  </si>
+  <si>
+    <t>ボーノ☆アラモーダ</t>
+  </si>
+  <si>
+    <t>超特急！フルカラー特殊PP</t>
+  </si>
+  <si>
+    <t>Make up Vampire!</t>
+  </si>
+  <si>
+    <t>シフォンリボンマミー</t>
+  </si>
+  <si>
+    <t>プリンセス・オブ・ピンク</t>
+  </si>
+  <si>
+    <t>Bono ☆ Alla Moda</t>
+  </si>
+  <si>
+    <t>Super Express! Full Color Special</t>
+  </si>
+  <si>
+    <t>Chiffon Ribbon Mummy</t>
+  </si>
+  <si>
+    <t>Princess of Pink</t>
+  </si>
+  <si>
+    <t>シューティンスタァ・ルヴゥ</t>
   </si>
 </sst>
 </file>
@@ -381,7 +406,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F87C1720-EBC1-4D75-8EF8-73897E92E54D}" name="uma_title" displayName="uma_title" ref="A1:B47" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F87C1720-EBC1-4D75-8EF8-73897E92E54D}" name="uma_title" displayName="uma_title" ref="A1:B52" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F332A4BD-E5A7-454A-A0F4-614F4188483E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{66B0ABE4-20FB-4E98-AA9D-0F05E3D3244F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
@@ -391,7 +416,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,13 +712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6952997-12D1-4644-9DFE-1443916FDD50}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -704,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -765,314 +790,354 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>82</v>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xls/UmaMusume Uma Title Translation List.xlsx
+++ b/xls/UmaMusume Uma Title Translation List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starg\Documents\GitHub\umacruise-english-patch\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8637D163-96EF-47BD-99D7-6454CE592CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F359BA-8C89-44BF-A047-7CD3B238374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{256B361F-8AF2-4BD7-A250-3B4078BE616F}"/>
+    <workbookView xWindow="25500" yWindow="360" windowWidth="15300" windowHeight="7875" xr2:uid="{256B361F-8AF2-4BD7-A250-3B4078BE616F}"/>
   </bookViews>
   <sheets>
     <sheet name="uma-title" sheetId="2" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <t>Princess of Pink</t>
   </si>
   <si>
-    <t>シューティンスタァ・ルヴゥ</t>
+    <t>シューティンスタァ・ルヴュ</t>
   </si>
 </sst>
 </file>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6952997-12D1-4644-9DFE-1443916FDD50}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls/UmaMusume Uma Title Translation List.xlsx
+++ b/xls/UmaMusume Uma Title Translation List.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starg\Documents\GitHub\umacruise-english-patch\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F359BA-8C89-44BF-A047-7CD3B238374D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62852C-D5AD-4AF4-A7B1-2BFAD70AD69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25500" yWindow="360" windowWidth="15300" windowHeight="7875" xr2:uid="{256B361F-8AF2-4BD7-A250-3B4078BE616F}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{256B361F-8AF2-4BD7-A250-3B4078BE616F}"/>
   </bookViews>
   <sheets>
     <sheet name="uma-title" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'uma-title'!$A$1:$B$52</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'uma-title'!$A$1:$B$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>text</t>
   </si>
@@ -332,6 +332,18 @@
   </si>
   <si>
     <t>シューティンスタァ・ルヴュ</t>
+  </si>
+  <si>
+    <t>秋桜ダンツァトリーチェ</t>
+  </si>
+  <si>
+    <t>Akizakura Danzatrice</t>
+  </si>
+  <si>
+    <t>Archer of the White Moon</t>
+  </si>
+  <si>
+    <t>皓月の弓取り</t>
   </si>
 </sst>
 </file>
@@ -406,7 +418,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F87C1720-EBC1-4D75-8EF8-73897E92E54D}" name="uma_title" displayName="uma_title" ref="A1:B52" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F87C1720-EBC1-4D75-8EF8-73897E92E54D}" name="uma_title" displayName="uma_title" ref="A1:B54" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F332A4BD-E5A7-454A-A0F4-614F4188483E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{66B0ABE4-20FB-4E98-AA9D-0F05E3D3244F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
@@ -712,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6952997-12D1-4644-9DFE-1443916FDD50}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,6 +1150,22 @@
       </c>
       <c r="B52" s="1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
